--- a/use_cases/SMR_FT_2023/data/cases_info.xlsx
+++ b/use_cases/SMR_FT_2023/data/cases_info.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/IES_Feb23/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_FT_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672DD729-CD0E-B94D-8899-E71C20933E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9DA1E7-54F8-6745-81D2-C6ABB123564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1480" windowWidth="31160" windowHeight="17880" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
+    <workbookView xWindow="1320" yWindow="1440" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Run status" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>Plant</t>
   </si>
@@ -192,6 +193,93 @@
   </si>
   <si>
     <t>Effective Corporate Tax Rate</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>illinois</t>
+  </si>
+  <si>
+    <t>minnesota</t>
+  </si>
+  <si>
+    <t>nebraska</t>
+  </si>
+  <si>
+    <t>ohio</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sweep.csv </t>
+  </si>
+  <si>
+    <t>sweep.csv +cashflows</t>
+  </si>
+  <si>
+    <t>SMR 20</t>
+  </si>
+  <si>
+    <t>SMR 100</t>
+  </si>
+  <si>
+    <t>CO2 low</t>
+  </si>
+  <si>
+    <t>CO2 high</t>
+  </si>
+  <si>
+    <t>PTC 100</t>
+  </si>
+  <si>
+    <t>PTC 000</t>
+  </si>
+  <si>
+    <t>PTC 270</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>x+r</t>
+  </si>
+  <si>
+    <t>o+r</t>
+  </si>
+  <si>
+    <t>CAPEX 0.75</t>
+  </si>
+  <si>
+    <t>CAPEX 1.25</t>
+  </si>
+  <si>
+    <t>Elec 0.75</t>
+  </si>
+  <si>
+    <t>Elec 1.25</t>
+  </si>
+  <si>
+    <t>OM 0.75</t>
+  </si>
+  <si>
+    <t>OM 1.25</t>
+  </si>
+  <si>
+    <t>Syn. 0.75</t>
+  </si>
+  <si>
+    <t>Syn. 1.25</t>
   </si>
 </sst>
 </file>
@@ -557,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A2721F-AED0-1841-ADFC-690E02A45004}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -624,7 +712,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="J2">
-        <f>$A$14+I2*(1-$A$14)</f>
+        <f t="shared" ref="J2:J11" si="0">$A$14+I2*(1-$A$14)</f>
         <v>0.28505000000000003</v>
       </c>
     </row>
@@ -657,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f>$A$14+I3*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
     </row>
@@ -690,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>$A$14+I4*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
     </row>
@@ -723,7 +811,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="J5">
-        <f>$A$14+I5*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.28742000000000001</v>
       </c>
     </row>
@@ -756,7 +844,7 @@
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="J6">
-        <f>$A$14+I6*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.27169900000000002</v>
       </c>
     </row>
@@ -789,7 +877,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="J7">
-        <f>$A$14+I7*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.24870999999999999</v>
       </c>
     </row>
@@ -822,7 +910,7 @@
         <v>8.8400000000000006E-2</v>
       </c>
       <c r="J8">
-        <f>$A$14+I8*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.27983599999999997</v>
       </c>
     </row>
@@ -855,7 +943,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="J9">
-        <f>$A$14+I9*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.26727499999999998</v>
       </c>
     </row>
@@ -888,7 +976,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="J10">
-        <f>$A$14+I10*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.26727499999999998</v>
       </c>
     </row>
@@ -921,7 +1009,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="J11">
-        <f>$A$14+I11*(1-$A$14)</f>
+        <f t="shared" si="0"/>
         <v>0.26727499999999998</v>
       </c>
     </row>
@@ -933,6 +1021,376 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143B7E1-1E60-324E-A3B1-1E80BA0F5163}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/use_cases/SMR_FT_2023/data/cases_info.xlsx
+++ b/use_cases/SMR_FT_2023/data/cases_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_FT_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9DA1E7-54F8-6745-81D2-C6ABB123564F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743129C-99BE-B043-8BB0-E57FBBBDBED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="1440" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Plant</t>
   </si>
@@ -252,12 +252,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>x+r</t>
-  </si>
-  <si>
-    <t>o+r</t>
-  </si>
-  <si>
     <t>CAPEX 0.75</t>
   </si>
   <si>
@@ -280,6 +274,9 @@
   </si>
   <si>
     <t>Syn. 1.25</t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143B7E1-1E60-324E-A3B1-1E80BA0F5163}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,334 +1060,105 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/use_cases/SMR_FT_2023/data/cases_info.xlsx
+++ b/use_cases/SMR_FT_2023/data/cases_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_FT_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743129C-99BE-B043-8BB0-E57FBBBDBED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD4A70-206D-5540-B954-5CE7AFBC7333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="1440" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
   <si>
     <t>Plant</t>
   </si>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,6 +1065,18 @@
       <c r="B2" t="s">
         <v>70</v>
       </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1073,6 +1085,18 @@
       <c r="B3" t="s">
         <v>70</v>
       </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
@@ -1084,6 +1108,21 @@
       <c r="A4" t="s">
         <v>60</v>
       </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
       <c r="H4" t="s">
         <v>70</v>
       </c>
@@ -1095,70 +1134,280 @@
       <c r="A5" t="s">
         <v>61</v>
       </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/use_cases/SMR_FT_2023/data/cases_info.xlsx
+++ b/use_cases/SMR_FT_2023/data/cases_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_FT_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD4A70-206D-5540-B954-5CE7AFBC7333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCF4BA0-A4DD-CF4C-B495-8085860FCD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="1440" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>Plant</t>
   </si>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,19 +1063,19 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1109,19 +1109,19 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
         <v>70</v>
@@ -1137,37 +1137,25 @@
       <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1175,19 +1163,19 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1197,17 +1185,14 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1215,19 +1200,16 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1235,19 +1217,13 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1255,19 +1231,19 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1275,19 +1251,13 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1295,19 +1265,13 @@
         <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1315,19 +1279,19 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,19 +1299,16 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1355,19 +1316,19 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1378,16 +1339,16 @@
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1398,16 +1359,13 @@
         <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/use_cases/SMR_FT_2023/data/cases_info.xlsx
+++ b/use_cases/SMR_FT_2023/data/cases_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_FT_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCF4BA0-A4DD-CF4C-B495-8085860FCD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C6581-BE30-EA49-8ADD-E0D2E3B6E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1440" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
+    <workbookView xWindow="1320" yWindow="1420" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>Plant</t>
   </si>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,40 +1062,40 @@
       <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
@@ -1108,20 +1108,20 @@
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>70</v>
@@ -1134,241 +1134,293 @@
       <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:F18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/use_cases/SMR_FT_2023/data/cases_info.xlsx
+++ b/use_cases/SMR_FT_2023/data/cases_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_FT_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C6581-BE30-EA49-8ADD-E0D2E3B6E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A075D46-B941-9747-8AFD-4C4632DE3349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="1420" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,19 +1063,19 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1083,13 +1083,13 @@
         <v>52</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1109,19 +1109,19 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>70</v>
@@ -1135,19 +1135,19 @@
         <v>61</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1155,19 +1155,19 @@
         <v>62</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1175,19 +1175,19 @@
         <v>63</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1195,19 +1195,19 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1215,19 +1215,19 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1235,19 +1235,19 @@
         <v>66</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1255,19 +1255,19 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1275,19 +1275,19 @@
         <v>72</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1295,19 +1295,19 @@
         <v>77</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1315,19 +1315,19 @@
         <v>78</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1335,19 +1335,19 @@
         <v>73</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1355,19 +1355,19 @@
         <v>74</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1375,19 +1375,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,24 +1395,24 @@
         <v>76</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F18">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1420,6 +1420,16 @@
         <color theme="5"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/use_cases/SMR_FT_2023/data/cases_info.xlsx
+++ b/use_cases/SMR_FT_2023/data/cases_info.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/SMR_FT_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A075D46-B941-9747-8AFD-4C4632DE3349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098F89E-F6F5-9E45-BF61-C7F0956339FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1420" windowWidth="31160" windowHeight="17880" activeTab="1" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17120" xr2:uid="{9C68323A-2460-E743-B5FC-B455388DAB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Run status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Plant</t>
   </si>
@@ -193,90 +192,6 @@
   </si>
   <si>
     <t>Effective Corporate Tax Rate</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>illinois</t>
-  </si>
-  <si>
-    <t>minnesota</t>
-  </si>
-  <si>
-    <t>nebraska</t>
-  </si>
-  <si>
-    <t>ohio</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sweep.csv </t>
-  </si>
-  <si>
-    <t>sweep.csv +cashflows</t>
-  </si>
-  <si>
-    <t>SMR 20</t>
-  </si>
-  <si>
-    <t>SMR 100</t>
-  </si>
-  <si>
-    <t>CO2 low</t>
-  </si>
-  <si>
-    <t>CO2 high</t>
-  </si>
-  <si>
-    <t>PTC 100</t>
-  </si>
-  <si>
-    <t>PTC 000</t>
-  </si>
-  <si>
-    <t>PTC 270</t>
-  </si>
-  <si>
-    <t>running</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>CAPEX 0.75</t>
-  </si>
-  <si>
-    <t>CAPEX 1.25</t>
-  </si>
-  <si>
-    <t>Elec 0.75</t>
-  </si>
-  <si>
-    <t>Elec 1.25</t>
-  </si>
-  <si>
-    <t>OM 0.75</t>
-  </si>
-  <si>
-    <t>OM 1.25</t>
-  </si>
-  <si>
-    <t>Syn. 0.75</t>
-  </si>
-  <si>
-    <t>Syn. 1.25</t>
-  </si>
-  <si>
-    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -642,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A2721F-AED0-1841-ADFC-690E02A45004}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1023,414 +938,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1143B7E1-1E60-324E-A3B1-1E80BA0F5163}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:F18">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="-1"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>